--- a/Project 1/Transformer Calculator Gokhan.xlsx
+++ b/Project 1/Transformer Calculator Gokhan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Machine Design\Week-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Dersler\EE564 Machine Design\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,74 +19,74 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_imp2">Sayfa1!$C$35</definedName>
-    <definedName name="_ims2">Sayfa1!$C$27</definedName>
-    <definedName name="_ipp1">Sayfa1!$C$107</definedName>
-    <definedName name="_ta1">Sayfa1!$C$20</definedName>
-    <definedName name="_ta2">Sayfa1!$C$106</definedName>
-    <definedName name="_taa1">Sayfa1!$C$21</definedName>
-    <definedName name="_va1">Sayfa1!$C$115</definedName>
+    <definedName name="_imp2">Sayfa1!$C$36</definedName>
+    <definedName name="_ims2">Sayfa1!$C$28</definedName>
+    <definedName name="_ipp1">Sayfa1!$C$108</definedName>
+    <definedName name="_ta1">Sayfa1!$C$21</definedName>
+    <definedName name="_ta2">Sayfa1!$C$107</definedName>
+    <definedName name="_taa1">Sayfa1!$C$22</definedName>
+    <definedName name="_va1">Sayfa1!$C$116</definedName>
     <definedName name="C_f1">'[1]Standard R and C Look Up Table'!$K$17</definedName>
     <definedName name="C_f2">'[1]Standard R and C Look Up Table'!$K$24</definedName>
     <definedName name="c_s1">'[1]Standard R and C Look Up Table'!$J$6</definedName>
     <definedName name="C_s2">'[1]Standard R and C Look Up Table'!$J$19</definedName>
-    <definedName name="constant">Sayfa1!$C$127</definedName>
-    <definedName name="cossqaavg">Sayfa1!$C$51</definedName>
-    <definedName name="cossqeavg">Sayfa1!$C$85</definedName>
-    <definedName name="cout">Sayfa1!$C$75</definedName>
-    <definedName name="d2a">Sayfa1!$C$130</definedName>
-    <definedName name="dclamp">Sayfa1!$C$97</definedName>
-    <definedName name="dcrlout">Sayfa1!$C$64</definedName>
-    <definedName name="dcrp">Sayfa1!$C$40</definedName>
-    <definedName name="dcrs">Sayfa1!$C$41</definedName>
-    <definedName name="dilmag">Sayfa1!$C$32</definedName>
-    <definedName name="dilout">Sayfa1!$C$23</definedName>
-    <definedName name="dmax">Sayfa1!$C$19</definedName>
-    <definedName name="dtyp">Sayfa1!$C$22</definedName>
+    <definedName name="constant">Sayfa1!$C$128</definedName>
+    <definedName name="cossqaavg">Sayfa1!$C$52</definedName>
+    <definedName name="cossqeavg">Sayfa1!$C$86</definedName>
+    <definedName name="cout">Sayfa1!$C$76</definedName>
+    <definedName name="d2a">Sayfa1!$C$131</definedName>
+    <definedName name="dclamp">Sayfa1!$C$98</definedName>
+    <definedName name="dcrlout">Sayfa1!$C$65</definedName>
+    <definedName name="dcrp">Sayfa1!$C$41</definedName>
+    <definedName name="dcrs">Sayfa1!$C$42</definedName>
+    <definedName name="dilmag">Sayfa1!$C$33</definedName>
+    <definedName name="dilout">Sayfa1!$C$24</definedName>
+    <definedName name="dmax">Sayfa1!$C$20</definedName>
+    <definedName name="dtyp">Sayfa1!$C$23</definedName>
     <definedName name="E48_f">'[1]Standard R and C Look Up Table'!$F$95</definedName>
     <definedName name="E48_s">'[1]Standard R and C Look Up Table'!$E$48</definedName>
     <definedName name="Eff">Sayfa1!$B$10</definedName>
-    <definedName name="esrcout">Sayfa1!$C$76</definedName>
-    <definedName name="fc">Sayfa1!$C$125</definedName>
-    <definedName name="fpp">Sayfa1!$C$124</definedName>
-    <definedName name="fs">Sayfa1!$C$11</definedName>
-    <definedName name="iloutrms">Sayfa1!$C$62</definedName>
-    <definedName name="imp">Sayfa1!$C$34</definedName>
-    <definedName name="ims">Sayfa1!$C$26</definedName>
-    <definedName name="ipp">Sayfa1!$C$33</definedName>
-    <definedName name="iprms">Sayfa1!$C$38</definedName>
-    <definedName name="iprms1">Sayfa1!$C$36</definedName>
-    <definedName name="iprms2">Sayfa1!$C$37</definedName>
-    <definedName name="ips">Sayfa1!$C$25</definedName>
-    <definedName name="isrms">Sayfa1!$C$31</definedName>
-    <definedName name="isrms1">Sayfa1!$C$28</definedName>
-    <definedName name="isrms2">Sayfa1!$C$29</definedName>
-    <definedName name="isrms3">Sayfa1!$C$30</definedName>
-    <definedName name="llk">Sayfa1!$C$42</definedName>
-    <definedName name="lmag">Sayfa1!$C$24</definedName>
-    <definedName name="lmag2">Sayfa1!$C$39</definedName>
-    <definedName name="lout">Sayfa1!$C$63</definedName>
-    <definedName name="ls">Sayfa1!$C$56</definedName>
-    <definedName name="n1divd1">Sayfa1!$C$129</definedName>
-    <definedName name="pbudget">Sayfa1!$C$15</definedName>
+    <definedName name="esrcout">Sayfa1!$C$77</definedName>
+    <definedName name="fc">Sayfa1!$C$126</definedName>
+    <definedName name="fpp">Sayfa1!$C$125</definedName>
+    <definedName name="fs">Sayfa1!$C$12</definedName>
+    <definedName name="iloutrms">Sayfa1!$C$63</definedName>
+    <definedName name="imp">Sayfa1!$C$35</definedName>
+    <definedName name="ims">Sayfa1!$C$27</definedName>
+    <definedName name="ipp">Sayfa1!$C$34</definedName>
+    <definedName name="iprms">Sayfa1!$C$39</definedName>
+    <definedName name="iprms1">Sayfa1!$C$37</definedName>
+    <definedName name="iprms2">Sayfa1!$C$38</definedName>
+    <definedName name="ips">Sayfa1!$C$26</definedName>
+    <definedName name="isrms">Sayfa1!$C$32</definedName>
+    <definedName name="isrms1">Sayfa1!$C$29</definedName>
+    <definedName name="isrms2">Sayfa1!$C$30</definedName>
+    <definedName name="isrms3">Sayfa1!$C$31</definedName>
+    <definedName name="llk">Sayfa1!$C$43</definedName>
+    <definedName name="lmag">Sayfa1!$C$25</definedName>
+    <definedName name="lmag2">Sayfa1!$C$40</definedName>
+    <definedName name="lout">Sayfa1!$C$64</definedName>
+    <definedName name="ls">Sayfa1!$C$57</definedName>
+    <definedName name="n1divd1">Sayfa1!$C$130</definedName>
+    <definedName name="pbudget">Sayfa1!$C$16</definedName>
     <definedName name="pout">Sayfa1!$D$9</definedName>
-    <definedName name="QAg">Sayfa1!$C$49</definedName>
-    <definedName name="qeg">Sayfa1!$C$81</definedName>
-    <definedName name="rdsonqa">Sayfa1!$C$47</definedName>
-    <definedName name="rdsonqe">Sayfa1!$C$82</definedName>
-    <definedName name="rf">Sayfa1!$C$136</definedName>
-    <definedName name="RII">Sayfa1!$C$123</definedName>
-    <definedName name="rload">Sayfa1!$C$126</definedName>
-    <definedName name="RS">Sayfa1!$C$110</definedName>
-    <definedName name="thu">Sayfa1!$C$68</definedName>
-    <definedName name="tr">Sayfa1!$C$90</definedName>
-    <definedName name="vdsqe">Sayfa1!$C$80</definedName>
-    <definedName name="vg">Sayfa1!$C$46</definedName>
+    <definedName name="QAg">Sayfa1!$C$50</definedName>
+    <definedName name="qeg">Sayfa1!$C$82</definedName>
+    <definedName name="rdsonqa">Sayfa1!$C$48</definedName>
+    <definedName name="rdsonqe">Sayfa1!$C$83</definedName>
+    <definedName name="rf">Sayfa1!$C$137</definedName>
+    <definedName name="RII">Sayfa1!$C$124</definedName>
+    <definedName name="rload">Sayfa1!$C$127</definedName>
+    <definedName name="RS">Sayfa1!$C$111</definedName>
+    <definedName name="thu">Sayfa1!$C$69</definedName>
+    <definedName name="tr">Sayfa1!$C$91</definedName>
+    <definedName name="vdsqe">Sayfa1!$C$81</definedName>
+    <definedName name="vg">Sayfa1!$C$47</definedName>
     <definedName name="VINMAX">Sayfa1!$D$6</definedName>
     <definedName name="VINMIN">Sayfa1!$B$6</definedName>
     <definedName name="vin">Sayfa1!$C$6</definedName>
     <definedName name="VOUT">Sayfa1!$C$7</definedName>
-    <definedName name="vrdson">Sayfa1!$C$16</definedName>
+    <definedName name="vrdson">Sayfa1!$C$17</definedName>
     <definedName name="VTRAN">Sayfa1!$D$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>A</t>
   </si>
@@ -168,12 +168,6 @@
     <t>A/mm2</t>
   </si>
   <si>
-    <t>Primary Wire Area</t>
-  </si>
-  <si>
-    <t>Secondary Wire Area</t>
-  </si>
-  <si>
     <t>mm2</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Window Area</t>
   </si>
   <si>
-    <t>Core Outer Length, Lcore</t>
-  </si>
-  <si>
     <t>Core Volume</t>
   </si>
   <si>
@@ -243,20 +234,6 @@
     <t>Secondary Winding Resistance, Rs</t>
   </si>
   <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial Tur"/>
-        <charset val="162"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-  </si>
-  <si>
     <t>Primary Copper Loss</t>
   </si>
   <si>
@@ -278,22 +255,10 @@
     <t>Relative Permeability of Core</t>
   </si>
   <si>
-    <t>A/Wb</t>
-  </si>
-  <si>
     <t>Magnetizing Inductance, Lm</t>
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>Leakage Inductance</t>
-  </si>
-  <si>
-    <t>Total Inductance</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Current Exchange Rate</t>
@@ -378,16 +343,77 @@
     <t>Dimensions</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>kW</t>
   </si>
   <si>
     <t>Single Phase Transformer Design</t>
   </si>
   <si>
-    <t>yanlıs. Base impedance dan yola cıkılacak</t>
+    <t>Maximum Ambient Temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Core Material Datasheet</t>
+  </si>
+  <si>
+    <t>Primary Wire Cross Section Area</t>
+  </si>
+  <si>
+    <t>Secondary Wire Cross Section Area</t>
+  </si>
+  <si>
+    <t>1/H</t>
+  </si>
+  <si>
+    <t>Primary Base Impedance</t>
+  </si>
+  <si>
+    <t>Primary Leakage Inductance</t>
+  </si>
+  <si>
+    <t>Secondary Leakage Inductance</t>
+  </si>
+  <si>
+    <t>mH</t>
+  </si>
+  <si>
+    <t>Total Copper Loss</t>
+  </si>
+  <si>
+    <r>
+      <t>Core Inner Length, L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Core Outer Length, L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>core</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -398,7 +424,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +505,50 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +570,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5D000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,10 +680,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,44 +728,79 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD5D000"/>
       <color rgb="FF080119"/>
     </mruColors>
   </colors>
@@ -705,14 +821,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>159618</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>296546</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>163171</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,8 +845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5268482"/>
-          <a:ext cx="6784679" cy="5199007"/>
+          <a:off x="0" y="7806832"/>
+          <a:ext cx="6800760" cy="5446410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1106,117 +1222,117 @@
     <col min="10" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="A1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
         <v>34.5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="L4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="35" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1224,42 +1340,42 @@
       </c>
       <c r="I5" s="2">
         <f>ROUND(vin*C4/C5,0)</f>
-        <v>1294</v>
+        <v>1490</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
+      <c r="L5" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N5" s="11">
-        <f>0.000000017*I16/(I10/1000000)</f>
-        <v>3.9733080543579713</v>
+        <f>0.000000017*I17/(I10/1000000)*(1+0.004041*(C11-20))</f>
+        <v>6.7654699040326722</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1080</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1267,42 +1383,42 @@
       </c>
       <c r="I6" s="2">
         <f>VOUT/(C5)</f>
-        <v>2500</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="2" t="s">
-        <v>48</v>
+      <c r="L6" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="11">
-        <f>0.000000017*I18/(I11/1000000)*1000</f>
-        <v>0.54490907517433851</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>49</v>
+        <f>0.000000017*I19/(I11/1000000)*(1+0.004041*(C11-20))</f>
+        <v>3.626020803361901</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>500</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1310,42 +1426,42 @@
       </c>
       <c r="I7" s="11">
         <f>VOUT/C4/0.98</f>
-        <v>29.577048210588586</v>
+        <v>14.788524105294293</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
+      <c r="L7" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="11">
         <f>I7^2*N5/1000</f>
-        <v>3.4758569618238879</v>
+        <v>1.4796112800862209</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1353,42 +1469,42 @@
       </c>
       <c r="I8" s="14">
         <f>C4*1000/4.44/I5/C9/C8*10000</f>
-        <v>600.48456493587867</v>
+        <v>695.32619868190329</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="2" t="s">
-        <v>51</v>
+      <c r="L8" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="11">
-        <f>I6^2*N6/1000/1000</f>
-        <v>3.4056817198396159</v>
+        <f>I6^2*N6/1000</f>
+        <v>1.4504083213447605</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1396,170 +1512,177 @@
       </c>
       <c r="I9" s="11">
         <f>SQRT(I8)</f>
-        <v>24.504786571930772</v>
+        <v>26.369038637802163</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="2" t="s">
-        <v>36</v>
+      <c r="L9" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N9" s="11">
-        <f>C14*I22/1000</f>
-        <v>1.5738362702613906</v>
+        <f>N8+N7</f>
+        <v>2.9300196014309812</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
+      <c r="G10" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="11">
         <f>I7/C10</f>
-        <v>7.3942620526471465</v>
+        <v>4.929508035098098</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="2" t="s">
-        <v>52</v>
+      <c r="L10" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="11">
-        <f>(N8+N7+N9)</f>
-        <v>8.4553749519248935</v>
+        <f>C15*I23/1000</f>
+        <v>2.6974194722174034</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
+      <c r="A11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>50</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
+      <c r="G11" s="35" t="s">
+        <v>75</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I11" s="14">
         <f>I6/C10</f>
-        <v>625</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11">
+        <f>(N8+N7+N10)</f>
+        <v>5.6274390736483841</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="35" t="s">
         <v>26</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="11">
-        <f>100*(VOUT*1000*pbudget)/(VOUT*1000*pbudget+N10*1000)</f>
-        <v>98.954132137172351</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7750</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="14">
         <f>(I5*I10+vin*I11)/fs/100</f>
-        <v>315.71958493542348</v>
+        <v>484.83223240987223</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="L12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13">
+        <f>100*(VOUT*1000*pbudget)/(VOUT*1000*pbudget+N11*1000)</f>
+        <v>98.887038432099672</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8960</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
+      <c r="A13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>7650</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
+      <c r="G13" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="11">
         <f>SQRT(I12)</f>
-        <v>17.768499794170118</v>
+        <v>22.018906249173057</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1572,384 +1695,424 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
+      <c r="A14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>8960</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="G14" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <f>I13+2*I9</f>
+        <v>74.756983524777382</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="L14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
+      <c r="A15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2.62</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="2" t="s">
-        <v>55</v>
+      <c r="L15" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="14">
         <f>0.04*(I9+I13)/(vrdson*PI()*0.0000004*I8/10000)</f>
-        <v>22408.577601399691</v>
+        <v>26688.28207197761</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A16" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14">
-        <f>4*(I9+I13/2)*I5/100</f>
-        <v>1728.2165276362596</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="G16" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="2" t="s">
-        <v>58</v>
+      <c r="L16" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N16" s="11">
         <f>I5^2/N15</f>
-        <v>74.722993569007741</v>
+        <v>83.186321023303321</v>
       </c>
       <c r="O16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15">
+        <v>830</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <f>PI()*(I9+I13/2)*I5/100</f>
+        <v>1749.6771273325048</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="14">
+        <f>C4*1000/I7</f>
+        <v>2332.89</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <f>C14*I17*I10/1000000</f>
+        <v>77.280425223795945</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="11">
+        <f>N17*0.02/2/PI()/C9*1000</f>
+        <v>148.5163900758607</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <f>PI()*(I9+I13/2)*vin/100</f>
+        <v>1268.2223473282586</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11">
+        <f>N18*vin^2/I5^2</f>
+        <v>78.027799371417473</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14">
-        <f>C13*I16*I10/1000000</f>
-        <v>114.49881756596339</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="11">
-        <f>N16*0.04</f>
-        <v>2.9889197427603098</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11">
-        <f>4*(I9+I13/2)*vin/100</f>
-        <v>20.033421881409502</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="11">
-        <f>N16+N17</f>
-        <v>77.711913311768058</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
-        <f>C13*I18*I11/1000000</f>
-        <v>112.18716253589322</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F20" s="5"/>
-      <c r="G20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I20" s="14">
-        <f>I19+I17</f>
-        <v>226.68598010185661</v>
+        <f>C14*I19*I11/1000000</f>
+        <v>75.755148213741322</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F21" s="5"/>
-      <c r="G21" s="2" t="s">
-        <v>30</v>
+      <c r="G21" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="13">
-        <f>((I13+2*I9)^2-(I13)^2)*I9/1000000</f>
-        <v>0.10153782388783165</v>
+      <c r="I21" s="14">
+        <f>I20+I18</f>
+        <v>153.03557343753727</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="12">
-        <f>C18*I22*dmax</f>
-        <v>9206.9421810291351</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="L21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
+      <c r="G22" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="14">
-        <f>I21*C12</f>
-        <v>786.9181351306953</v>
+      <c r="I22" s="13">
+        <f>((I13+2*I9)^2-(I13)^2)*I9/1000000</f>
+        <v>0.13458162312115968</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N22" s="12">
-        <f>C17*I20*dmax</f>
-        <v>8840.7532239724078</v>
+        <f>C19*I23*dmax</f>
+        <v>12045.728177459396</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
-      <c r="G23" s="2" t="s">
-        <v>45</v>
+      <c r="G23" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I23" s="14">
-        <f>I20+I22</f>
-        <v>1013.604115232552</v>
+        <f>I22*C13</f>
+        <v>1029.5494168768714</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="2" t="s">
-        <v>65</v>
+      <c r="L23" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N23" s="12">
-        <f>N22+N21</f>
-        <v>18047.695405001541</v>
+        <f>C18*I21*dmax</f>
+        <v>5968.387364063954</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="G24" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
+        <f>I21+I23</f>
+        <v>1182.5849903144087</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="12">
+        <f>N23+N22</f>
+        <v>18014.115541523352</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G30" s="33" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection deleteColumns="0" deleteRows="0" sort="0"/>
   <protectedRanges>
-    <protectedRange sqref="C4:C19" name="Aralık1"/>
+    <protectedRange sqref="C4:C20" name="Aralık1"/>
   </protectedRanges>
   <mergeCells count="8">
-    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L14:O14"/>
-    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="G3:O3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G30" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Project 1/Transformer Calculator Gokhan.xlsx
+++ b/Project 1/Transformer Calculator Gokhan.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>A</t>
   </si>
@@ -276,9 +276,6 @@
       </rPr>
       <t>$</t>
     </r>
-  </si>
-  <si>
-    <t>Total Cost</t>
   </si>
   <si>
     <t>Core Material Cost</t>
@@ -413,6 +410,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>core</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Production Cost</t>
+  </si>
+  <si>
+    <t>Total Losses for 20 Years</t>
+  </si>
+  <si>
+    <t>Electricity Price</t>
+  </si>
+  <si>
+    <r>
+      <t>₺/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Tur"/>
+        <charset val="162"/>
+      </rPr>
+      <t>kWh</t>
     </r>
   </si>
 </sst>
@@ -743,6 +763,15 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,15 +809,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1229,67 +1249,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -1302,24 +1322,24 @@
         <v>6</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="G4" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30"/>
+      <c r="L4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1332,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1340,13 +1360,13 @@
       </c>
       <c r="I5" s="2">
         <f>ROUND(vin*C4/C5,0)</f>
-        <v>1490</v>
+        <v>1449</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="22" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1354,7 +1374,7 @@
       </c>
       <c r="N5" s="11">
         <f>0.000000017*I17/(I10/1000000)*(1+0.004041*(C11-20))</f>
-        <v>6.7654699040326722</v>
+        <v>6.6175386789036708</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>44</v>
@@ -1362,20 +1382,20 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="15">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1389,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="22" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1397,7 +1417,7 @@
       </c>
       <c r="N6" s="11">
         <f>0.000000017*I19/(I11/1000000)*(1+0.004041*(C11-20))</f>
-        <v>3.626020803361901</v>
+        <v>3.5457837054595758</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>44</v>
@@ -1405,7 +1425,7 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -1418,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1432,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="22" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1440,15 +1460,15 @@
       </c>
       <c r="N7" s="11">
         <f>I7^2*N5/1000</f>
-        <v>1.4796112800862209</v>
+        <v>1.4472586552896227</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -1461,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1469,13 +1489,13 @@
       </c>
       <c r="I8" s="14">
         <f>C4*1000/4.44/I5/C9/C8*10000</f>
-        <v>695.32619868190329</v>
+        <v>715.00071500071499</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="22" t="s">
         <v>47</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1483,15 +1503,15 @@
       </c>
       <c r="N8" s="11">
         <f>I6^2*N6/1000</f>
-        <v>1.4504083213447605</v>
+        <v>1.4183134821838304</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -1504,7 +1524,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1512,29 +1532,29 @@
       </c>
       <c r="I9" s="11">
         <f>SQRT(I8)</f>
-        <v>26.369038637802163</v>
+        <v>26.73949728399386</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="35" t="s">
-        <v>81</v>
+      <c r="L9" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N9" s="11">
         <f>N8+N7</f>
-        <v>2.9300196014309812</v>
+        <v>2.8655721374734533</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1547,8 +1567,8 @@
         <v>23</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="35" t="s">
-        <v>74</v>
+      <c r="G10" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>1</v>
@@ -1561,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1569,16 +1589,16 @@
       </c>
       <c r="N10" s="11">
         <f>C15*I23/1000</f>
-        <v>2.6974194722174034</v>
+        <v>2.7774102565184737</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>71</v>
+      <c r="A11" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>1</v>
@@ -1587,11 +1607,11 @@
         <v>50</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="35" t="s">
-        <v>75</v>
+      <c r="G11" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>1</v>
@@ -1604,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="22" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1612,15 +1632,15 @@
       </c>
       <c r="N11" s="11">
         <f>(N8+N7+N10)</f>
-        <v>5.6274390736483841</v>
+        <v>5.642982393991927</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1631,7 +1651,7 @@
       </c>
       <c r="D12" s="16"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1639,13 +1659,13 @@
       </c>
       <c r="I12" s="14">
         <f>(I5*I10+vin*I11)/fs/100</f>
-        <v>484.83223240987223</v>
+        <v>471.4285714285715</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="22" t="s">
         <v>49</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1653,15 +1673,15 @@
       </c>
       <c r="N12" s="13">
         <f>100*(VOUT*1000*pbudget)/(VOUT*1000*pbudget+N11*1000)</f>
-        <v>98.887038432099672</v>
+        <v>98.883998672882811</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1674,15 +1694,15 @@
         <v>30</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="35" t="s">
-        <v>82</v>
+      <c r="G13" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="11">
         <f>SQRT(I12)</f>
-        <v>22.018906249173057</v>
+        <v>21.712405933672379</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1695,7 +1715,7 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1708,30 +1728,30 @@
         <v>30</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="35" t="s">
-        <v>83</v>
+      <c r="G14" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I14" s="11">
         <f>I13+2*I9</f>
-        <v>74.756983524777382</v>
+        <v>75.191400501660098</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="L14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1749,7 +1769,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="22" t="s">
         <v>51</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1757,15 +1777,15 @@
       </c>
       <c r="N15" s="14">
         <f>0.04*(I9+I13)/(vrdson*PI()*0.0000004*I8/10000)</f>
-        <v>26688.28207197761</v>
+        <v>25988.211940152643</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1776,14 +1796,14 @@
       </c>
       <c r="D16" s="16"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="G16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="22" t="s">
         <v>53</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1791,7 +1811,7 @@
       </c>
       <c r="N16" s="11">
         <f>I5^2/N15</f>
-        <v>83.186321023303321</v>
+        <v>80.790513977456342</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>54</v>
@@ -1799,7 +1819,7 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1810,7 +1830,7 @@
       </c>
       <c r="D17" s="16"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1818,14 +1838,14 @@
       </c>
       <c r="I17" s="14">
         <f>PI()*(I9+I13/2)*I5/100</f>
-        <v>1749.6771273325048</v>
+        <v>1711.4193441041427</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="35" t="s">
-        <v>77</v>
+      <c r="L17" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>1</v>
@@ -1840,8 +1860,8 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>60</v>
+      <c r="A18" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>1</v>
@@ -1850,10 +1870,10 @@
         <v>10</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1861,14 +1881,14 @@
       </c>
       <c r="I18" s="14">
         <f>C14*I17*I10/1000000</f>
-        <v>77.280425223795945</v>
+        <v>75.590640457325847</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="35" t="s">
-        <v>78</v>
+      <c r="L18" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>1</v>
@@ -1878,13 +1898,13 @@
         <v>148.5163900758607</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>58</v>
+      <c r="A19" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>1</v>
@@ -1893,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1904,29 +1924,29 @@
       </c>
       <c r="I19" s="14">
         <f>PI()*(I9+I13/2)*vin/100</f>
-        <v>1268.2223473282586</v>
+        <v>1240.1589450030021</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="35" t="s">
-        <v>79</v>
+      <c r="L19" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="11">
         <f>N18*vin^2/I5^2</f>
-        <v>78.027799371417473</v>
+        <v>77.985922115028728</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -1939,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="22" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1947,7 +1967,7 @@
       </c>
       <c r="I20" s="14">
         <f>C14*I19*I11/1000000</f>
-        <v>75.755148213741322</v>
+        <v>74.078827648179342</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>32</v>
@@ -1960,8 +1980,20 @@
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1969,23 +2001,23 @@
       </c>
       <c r="I21" s="14">
         <f>I20+I18</f>
-        <v>153.03557343753727</v>
+        <v>149.66946810550519</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
+      <c r="L21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="22" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -1993,30 +2025,30 @@
       </c>
       <c r="I22" s="13">
         <f>((I13+2*I9)^2-(I13)^2)*I9/1000000</f>
-        <v>0.13458162312115968</v>
+        <v>0.13857258177510723</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="35" t="s">
-        <v>61</v>
+      <c r="L22" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N22" s="12">
         <f>C19*I23*dmax</f>
-        <v>12045.728177459396</v>
+        <v>12402.938931780973</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="22" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -2024,30 +2056,30 @@
       </c>
       <c r="I23" s="14">
         <f>I22*C13</f>
-        <v>1029.5494168768714</v>
+        <v>1060.0802505795702</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="35" t="s">
-        <v>60</v>
+      <c r="L23" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N23" s="12">
         <f>C18*I21*dmax</f>
-        <v>5968.387364063954</v>
+        <v>5837.1092561147025</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24" s="5"/>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="22" t="s">
         <v>42</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2055,24 +2087,24 @@
       </c>
       <c r="I24" s="14">
         <f>I21+I23</f>
-        <v>1182.5849903144087</v>
+        <v>1209.7497186850755</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="35" t="s">
-        <v>57</v>
+      <c r="L24" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N24" s="12">
         <f>N23+N22</f>
-        <v>18014.115541523352</v>
+        <v>18240.048187895674</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -2082,20 +2114,29 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="L25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
+        <f>N11*_ta1*24*365*20</f>
+        <v>395460.20617095428</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G30" s="33" t="s">
-        <v>73</v>
+      <c r="G30" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection deleteColumns="0" deleteRows="0" sort="0"/>
   <protectedRanges>
-    <protectedRange sqref="C4:C20" name="Aralık1"/>
+    <protectedRange sqref="C4:C21" name="Aralık1"/>
   </protectedRanges>
   <mergeCells count="8">
     <mergeCell ref="L21:O21"/>
